--- a/Instances/G0044313_b2_fe25_en_rk50_ll3_l20_NonStationary.xlsx
+++ b/Instances/G0044313_b2_fe25_en_rk50_ll3_l20_NonStationary.xlsx
@@ -486,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -518,7 +518,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -995,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="H2" t="s"/>
       <c r="I2" t="n">
@@ -1022,7 +1022,7 @@
         <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>17.14285714285714</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s"/>
       <c r="I3" t="n">
@@ -1049,7 +1049,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="H4" t="s"/>
       <c r="I4" t="n">
@@ -1076,7 +1076,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>57.14285714285715</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="H5" t="s"/>
       <c r="I5" t="n">
@@ -1169,7 +1169,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1371,16 +1371,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1406,16 +1406,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E5" t="n">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1441,16 +1441,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E6" t="n">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1476,16 +1476,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D7" t="n">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="E7" t="n">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1503,41 +1503,6 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>105</v>
-      </c>
-      <c r="C8" t="n">
-        <v>48</v>
-      </c>
-      <c r="D8" t="n">
-        <v>77</v>
-      </c>
-      <c r="E8" t="n">
-        <v>122</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,7 +1517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1632,34 +1597,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1667,16 +1632,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.625</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1702,16 +1667,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.25</v>
+        <v>5.0625</v>
       </c>
       <c r="C5" t="n">
-        <v>2.75</v>
+        <v>6.1875</v>
       </c>
       <c r="D5" t="n">
-        <v>2.625</v>
+        <v>10.125</v>
       </c>
       <c r="E5" t="n">
-        <v>5.5</v>
+        <v>15.75</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1737,16 +1702,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.0625</v>
+        <v>17.9375</v>
       </c>
       <c r="C6" t="n">
-        <v>6.1875</v>
+        <v>3.71875</v>
       </c>
       <c r="D6" t="n">
-        <v>10.125</v>
+        <v>10.5</v>
       </c>
       <c r="E6" t="n">
-        <v>15.75</v>
+        <v>32.8125</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1772,16 +1737,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17.9375</v>
+        <v>24.609375</v>
       </c>
       <c r="C7" t="n">
-        <v>3.71875</v>
+        <v>11.25</v>
       </c>
       <c r="D7" t="n">
-        <v>10.5</v>
+        <v>18.046875</v>
       </c>
       <c r="E7" t="n">
-        <v>32.8125</v>
+        <v>28.59375</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1799,41 +1764,6 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>24.609375</v>
-      </c>
-      <c r="C8" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="D8" t="n">
-        <v>18.046875</v>
-      </c>
-      <c r="E8" t="n">
-        <v>28.59375</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
         <v>0</v>
       </c>
     </row>
